--- a/Data/aearep-1514/candidatepackages.xlsx
+++ b/Data/aearep-1514/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,18 +22,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
+    <t>fre</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>fre</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
@@ -58,48 +52,36 @@
     <t>sq</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>des2</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>des2</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
     <t>find</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>segregation</t>
   </si>
   <si>
     <t>pre</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>tr</t>
   </si>
   <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -115,27 +97,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1514</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1514/124601/prog_directory/01_data_prep</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1514/124601/prog_directory/02_analysis</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1514/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>0-Master_Make_Data.do</t>
   </si>
   <si>
@@ -173,9 +143,6 @@
   </si>
   <si>
     <t>1-Analysis_Final.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -219,7 +186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -227,13 +194,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -253,7 +220,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -265,7 +232,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -277,7 +244,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -289,7 +256,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -313,7 +280,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -325,7 +292,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -337,10 +304,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D10"/>
     </row>
@@ -349,10 +316,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>279</v>
+        <v>493</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.16297520697116852</v>
       </c>
       <c r="D11"/>
     </row>
@@ -361,10 +328,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>385</v>
+        <v>525</v>
       </c>
       <c r="C12">
-        <v>0.12765252590179443</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D12"/>
     </row>
@@ -373,10 +340,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C13">
-        <v>0.17805039882659912</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D13"/>
     </row>
@@ -385,10 +352,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="C14">
-        <v>0.18667109310626984</v>
+        <v>0.19438016414642334</v>
       </c>
       <c r="D14"/>
     </row>
@@ -397,10 +364,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C15">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D15"/>
     </row>
@@ -409,10 +376,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D16"/>
     </row>
@@ -421,10 +388,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>569</v>
+        <v>978</v>
       </c>
       <c r="C17">
-        <v>0.18866047263145447</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D17"/>
     </row>
@@ -433,10 +400,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>1224</v>
       </c>
       <c r="C18">
-        <v>0.24701590836048126</v>
+        <v>0.40462809801101685</v>
       </c>
       <c r="D18"/>
     </row>
@@ -445,10 +412,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>879</v>
+        <v>1428</v>
       </c>
       <c r="C19">
-        <v>0.29144561290740967</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D19"/>
     </row>
@@ -457,10 +424,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>985</v>
+        <v>1658</v>
       </c>
       <c r="C20">
-        <v>0.32659152150154114</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D20"/>
     </row>
@@ -469,10 +436,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1124</v>
+        <v>1975</v>
       </c>
       <c r="C21">
-        <v>0.37267905473709106</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D21"/>
     </row>
@@ -481,10 +448,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1166</v>
+        <v>2030</v>
       </c>
       <c r="C22">
-        <v>0.38660478591918945</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D22"/>
     </row>
@@ -493,84 +460,12 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1553</v>
+        <v>2436</v>
       </c>
       <c r="C23">
-        <v>0.51492041349411011</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1798</v>
-      </c>
-      <c r="C24">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1817</v>
-      </c>
-      <c r="C25">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1835</v>
-      </c>
-      <c r="C26">
-        <v>0.60842174291610718</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1859</v>
-      </c>
-      <c r="C27">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1951</v>
-      </c>
-      <c r="C28">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2424</v>
-      </c>
-      <c r="C29">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D29"/>
     </row>
   </sheetData>
 </worksheet>
@@ -578,143 +473,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
